--- a/data/Top_3_Languages_Indian_States.xlsx
+++ b/data/Top_3_Languages_Indian_States.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartikey\Desktop\Census_Data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\Census_Data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C953C-8DE0-4AE8-9DAF-BEE6EBF0859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B475F7FB-A6FE-4A47-8105-8169622D32A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>State</t>
   </si>
@@ -55,7 +55,10 @@
     <t>nissi/dafla</t>
   </si>
   <si>
-    <t>adi</t>
+    <t>bengali</t>
+  </si>
+  <si>
+    <t>nepali</t>
   </si>
   <si>
     <t>Assam</t>
@@ -64,9 +67,6 @@
     <t>assamese</t>
   </si>
   <si>
-    <t>bengali</t>
-  </si>
-  <si>
     <t>Bihar</t>
   </si>
   <si>
@@ -121,6 +121,9 @@
     <t>pahari</t>
   </si>
   <si>
+    <t>mandeali</t>
+  </si>
+  <si>
     <t>Jammu And Kashmir</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
     <t>Laakshwadeep</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
     <t>Madhya Pradesh</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>manipuri</t>
   </si>
   <si>
+    <t>tangkhul</t>
+  </si>
+  <si>
     <t>kabui</t>
   </si>
   <si>
-    <t>tangkhul</t>
-  </si>
-  <si>
     <t>Meghalaya</t>
   </si>
   <si>
@@ -202,7 +202,7 @@
     <t>ao</t>
   </si>
   <si>
-    <t>angami</t>
+    <t>lotha</t>
   </si>
   <si>
     <t>NCT of Delhi</t>
@@ -229,9 +229,6 @@
     <t>Sikkim</t>
   </si>
   <si>
-    <t>nepali</t>
-  </si>
-  <si>
     <t>bhotia</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>Tripura</t>
-  </si>
-  <si>
-    <t>tripuri</t>
   </si>
   <si>
     <t>kokbarak</t>
@@ -624,15 +618,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -658,25 +651,19 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>32971</v>
+        <v>32963</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>31344</v>
+        <v>26474</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,29 +674,23 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>21316887</v>
+        <v>21315555</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>4999581</v>
+        <v>4998899</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>864740</v>
+        <v>570565</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,62 +701,50 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>76303</v>
+        <v>48610</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>47495</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>47265</v>
+        <v>30177</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>2055522</v>
+        <v>2028965</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>1461903</v>
+        <v>1451668</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>546789</v>
+        <v>447711</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,13 +755,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>9316604</v>
+        <v>5038970</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -801,14 +767,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>1647924</v>
+        <v>1647410</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,24 +782,18 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>756395</v>
+        <v>698184</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>225183</v>
+        <v>225094</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -849,32 +806,26 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>4987611</v>
+        <v>2651986</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>2651986</v>
+        <v>2039814</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>182770</v>
+        <v>170661</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,29 +836,23 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>69924</v>
+        <v>53465</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>45134</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>18934</v>
+        <v>18911</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -915,27 +860,21 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>82601</v>
+        <v>71095</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>71551</v>
+        <v>66309</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -951,29 +890,23 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>546538</v>
+        <v>546315</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>123091</v>
+        <v>104174</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="C31">
-        <v>87079</v>
+        <v>87061</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,29 +917,23 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>19498567</v>
+        <v>19480141</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>3755547</v>
+        <v>3304796</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34">
-        <v>857802</v>
+        <v>856611</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,13 +944,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>7875502</v>
+        <v>6181867</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -1032,14 +956,11 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
       <c r="B37" t="s">
         <v>18</v>
       </c>
       <c r="C37">
-        <v>735073</v>
+        <v>691407</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,13 +971,10 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>569425</v>
+        <v>290342</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
@@ -1065,179 +983,146 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C40">
-        <v>69424</v>
+        <v>52379</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>2139764</v>
+        <v>2130052</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>33</v>
-      </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>652815</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>351805</v>
+        <v>187124</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>5370137</v>
+        <v>3151897</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>36</v>
-      </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45">
         <v>927901</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46">
-        <v>904269</v>
+        <v>904141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47">
-        <v>11610128</v>
+        <v>11603571</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>4476220</v>
+        <v>4475953</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>1951506</v>
+        <v>1949606</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>15545968</v>
+        <v>15544654</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51">
-        <v>156260</v>
+        <v>156259</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
       <c r="B52" t="s">
         <v>27</v>
       </c>
       <c r="C52">
-        <v>53137</v>
+        <v>52447</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
         <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
       </c>
       <c r="C53">
         <v>40394</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>9260</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>219</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,13 +1133,10 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>18080923</v>
+        <v>16118232</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
       <c r="B57" t="s">
         <v>45</v>
       </c>
@@ -1263,14 +1145,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>44</v>
-      </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>762873</v>
+        <v>762249</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1281,29 +1160,23 @@
         <v>24</v>
       </c>
       <c r="C59">
-        <v>27487142</v>
+        <v>27453710</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>46</v>
-      </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>10417018</v>
+        <v>8717024</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61">
-        <v>5899606</v>
+        <v>5897105</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1318,25 +1191,19 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
       <c r="B63" t="s">
         <v>49</v>
       </c>
       <c r="C63">
-        <v>30190</v>
+        <v>29758</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>47</v>
-      </c>
       <c r="B64" t="s">
         <v>50</v>
       </c>
       <c r="C64">
-        <v>29758</v>
+        <v>15704</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1347,29 +1214,23 @@
         <v>52</v>
       </c>
       <c r="C65">
-        <v>287965</v>
+        <v>253045</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>51</v>
-      </c>
       <c r="B66" t="s">
         <v>53</v>
       </c>
       <c r="C66">
-        <v>113324</v>
+        <v>112636</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>51</v>
-      </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>60870</v>
+        <v>56686</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1380,13 +1241,10 @@
         <v>55</v>
       </c>
       <c r="C68">
-        <v>499431</v>
+        <v>499367</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
       <c r="B69" t="s">
         <v>56</v>
       </c>
@@ -1395,9 +1253,6 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
       <c r="B70" t="s">
         <v>57</v>
       </c>
@@ -1413,29 +1268,23 @@
         <v>59</v>
       </c>
       <c r="C71">
-        <v>86873</v>
+        <v>71098</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>58</v>
-      </c>
       <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>50852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>60</v>
       </c>
-      <c r="C72">
-        <v>53731</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" t="s">
-        <v>43</v>
-      </c>
       <c r="C73">
-        <v>51029</v>
+        <v>50629</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1446,29 +1295,23 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>13853725</v>
+        <v>13273955</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>61</v>
-      </c>
       <c r="B75" t="s">
         <v>18</v>
       </c>
       <c r="C75">
-        <v>868651</v>
+        <v>868479</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76">
-        <v>864752</v>
+        <v>863987</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1479,29 +1322,23 @@
         <v>21</v>
       </c>
       <c r="C77">
-        <v>5433964</v>
+        <v>5159828</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>546623</v>
+        <v>399530</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79">
-        <v>310699</v>
+        <v>310646</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1516,9 +1353,6 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>63</v>
-      </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
@@ -1527,11 +1361,8 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>63</v>
-      </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C82">
         <v>47627</v>
@@ -1545,24 +1376,18 @@
         <v>18</v>
       </c>
       <c r="C83">
-        <v>8383222</v>
+        <v>8383093</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>64</v>
-      </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>1835736</v>
+        <v>1693365</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>64</v>
-      </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
@@ -1578,13 +1403,10 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <v>15533566</v>
+        <v>7541530</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>65</v>
-      </c>
       <c r="B87" t="s">
         <v>66</v>
       </c>
@@ -1593,9 +1415,6 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>65</v>
-      </c>
       <c r="B88" t="s">
         <v>67</v>
       </c>
@@ -1608,128 +1427,104 @@
         <v>68</v>
       </c>
       <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>90662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>20395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>69</v>
       </c>
-      <c r="C89">
-        <v>90669</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>68</v>
-      </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90">
-        <v>30648</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" t="s">
-        <v>70</v>
-      </c>
       <c r="C91">
-        <v>12673</v>
+        <v>12658</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92">
-        <v>29657137</v>
+        <v>29656293</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>71</v>
-      </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93">
-        <v>2260418</v>
+        <v>2260374</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>71</v>
-      </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94">
-        <v>1021050</v>
+        <v>1020950</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>876922</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>72</v>
       </c>
-      <c r="B95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95">
-        <v>882641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
       <c r="C96">
-        <v>35452</v>
+        <v>34186</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>72</v>
-      </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>34186</v>
+        <v>15621</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98">
-        <v>2605427</v>
+        <v>1970049</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>75</v>
-      </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C99">
         <v>338861</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>75</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
       </c>
       <c r="C100">
         <v>245718</v>
@@ -1737,30 +1532,24 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>38042721</v>
+        <v>36293733</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>78</v>
-      </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102">
-        <v>5968862</v>
+        <v>5966255</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>78</v>
-      </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
@@ -1770,13 +1559,13 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C104">
-        <v>22510185</v>
+        <v>22466982</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -1784,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>4328190</v>
+        <v>4106967</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -1792,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>1331754</v>
+        <v>1331505</v>
       </c>
     </row>
   </sheetData>
